--- a/import.xlsx
+++ b/import.xlsx
@@ -1,67 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\konshinav\st\python\eng_simulator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A200C291-A30D-4779-AEE2-F91B6E3B5390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Phrases" sheetId="1" r:id="rId1"/>
+    <sheet name="Phrases" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>En</t>
-  </si>
-  <si>
-    <t>Ru</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>кошка</t>
-  </si>
-  <si>
-    <t>собак</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>птица</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,45 +408,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>En</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ru</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -1,40 +1,441 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\konshinav\st\python\eng_simulator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC26FE5-EF83-4DC5-8B06-C42C8B1B7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phrases" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Phrases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I would like to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">point out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">that it’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">extremely </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>important</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я бы хотел </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>заметить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, что это </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>чрезвычайно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> важно</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I’d like to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">point out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>that it isn’t enough</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я хотел бы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>заметить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>что этого не достаточно</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Let me </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">point out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">that we can’t </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">achieve success </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>without hard work</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Позволь мне </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">заметить </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">что, мы не можем </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">достичь успеха </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>без усердной работы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">point out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">that success </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>can’t be achieved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> without hard work</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я хочу </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">заметить </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">что, успех </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">не может быть достигнут </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>без усердной работы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I like to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">point out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>that it is not enough to get this level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я хотел бы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>заметить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> что, этого недостаточно чтобы получить этот уровень</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +443,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,32 +768,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>En</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Ru</t>
-        </is>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/import.xlsx
+++ b/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\konshinav\st\python\eng_simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E7ECA8-E377-4813-A9A0-80AEF66361C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2CE956-DA2A-4E26-8364-57DAEAA97F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>En</t>
   </si>
@@ -28,29 +28,1942 @@
     <t>Ru</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>собака</t>
-  </si>
-  <si>
-    <t>кошка</t>
-  </si>
-  <si>
-    <t>птица</t>
+    <t>point out</t>
+  </si>
+  <si>
+    <t>заметить (вместо say)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I would like to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">point out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">that it’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">extremely </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>important</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я бы хотел </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>заметить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, что это </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>чрезвычайно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> важно</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I’d like to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">point out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>that it isn’t enough</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я хотел бы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>заметить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>что этого не достаточно</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Let me </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">point out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">that we can’t </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">achieve success </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>without hard work</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Позволь мне </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">заметить </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">что, мы не можем </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">достичь успеха </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>без усердной работы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">point out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">that success </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>can’t be achieved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> without hard work</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я хочу </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">заметить </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">что, успех </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">не может быть достигнут </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>без усердной работы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I like to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">point out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>that it is not enough to get this level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я хотел бы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>заметить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> что, этого недостаточно чтобы получить этот уровень</t>
+    </r>
+  </si>
+  <si>
+    <t>figure out</t>
+  </si>
+  <si>
+    <t>понимать (вместо understand)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can’t </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>figure out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> how it works</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">не могу </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>понять как это работает</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can’t </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>figure out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> how </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>it all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> works</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я не могу </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">понять </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">как </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">это все </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>работает</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can’t </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>figure it out</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">не могу </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>понять это</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I’m trying to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">figure out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>how to do it better</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я стараюсь </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">понять </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>сейчас как сделать это лучше</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I’m trying to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">figure out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>how to solve this problem</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я стараюсь </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">понять </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>как решить эту проблему</t>
+    </r>
+  </si>
+  <si>
+    <t>come up with</t>
+  </si>
+  <si>
+    <t>прийти в голову (вместо think)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You know, I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>came up with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> one interesting idea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ты знаешь, мне </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">пришла в голову </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (у меня есть)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>одна интересная идея</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You know, I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">came up with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">brilliant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ты знаешь, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">мне в голову пришла блестящая </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>идея</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">came up with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">an interesting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">solution to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>this problem.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Мне пришло в голову </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">интересное </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">решение </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>этой проблемы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">live up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my expectations</t>
+    </r>
+  </si>
+  <si>
+    <t>оправдывать мои ожидания (вместо like)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It didn’t </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">live up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my expectations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Это </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">не оправдало </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>мои ожидания</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This performance didn’t </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">live up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my expectations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Это представление </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">не оправдало </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>мои ожидания.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This result didn’t </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>live up to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> my expectations </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Этот результат </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">не оправдал </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>мои ожидания</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This course </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lived up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my expectations</t>
+    </r>
+  </si>
+  <si>
+    <t>Этот курс оправдал мои ожидания</t>
+  </si>
+  <si>
+    <t>come to the conclusion</t>
+  </si>
+  <si>
+    <t>прийти к выводу (вместо think)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">come to the conclusion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>that it is the right decision</t>
+    </r>
+  </si>
+  <si>
+    <t>Я прихожу к выводу, что это правильное решение </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>come up to the conclusion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that it is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">the only right </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>decision</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>прихожу к выводу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, что это </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">единственно правильное </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>решение </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">came up to the conclusion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">that it is very </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">effective way of learning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>foreign languages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>пришел к выводу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, что это очень эффективный способ изучения иностранных языков</t>
+    </r>
+  </si>
+  <si>
+    <t>come across</t>
+  </si>
+  <si>
+    <t>натолкнулся на (встретил, вместо meet)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">came across </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>so many new words in this text</t>
+    </r>
+  </si>
+  <si>
+    <t>Я встретил так много новых слов в этом тексте</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">came across </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>expression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">встретил </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">новое </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>выражение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>came across</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lots of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>new words in that article</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">встретил много </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>новых слов в той статье</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I’ve </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">never come across </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>this word before</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">никогда не встречал </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>это слово раньше</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I’ve </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">never come across </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>this expression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">никогда не встречал </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>это выражение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I’ve </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">never come across </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>it before</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">никогда не встречал </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>это раньше</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I’ve </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">never come across </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>explanation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Я </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>никогда не встречал</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> этого </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>объяснения</t>
+    </r>
+  </si>
+  <si>
+    <t>to sum up</t>
+  </si>
+  <si>
+    <t>подводя итог (my final idea)</t>
+  </si>
+  <si>
+    <r>
+      <t>To sum up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, it was a very useful lesson</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Подводя итог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, это был очень полезный урок</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>To sum up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, it was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>an extremely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> useful lesson</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Подводя итог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, это был </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>чрезвычайно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> урок</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To sum up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">this course </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lived up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my expectations </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Подводя итог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, этот курс </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">оправдал </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>мои ожидания</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To sum up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">it was an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">unforgettable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>experience</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Подводя итог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, это был </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">незабываемый </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>опыт</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>To sum up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, it made an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">unforgettable impression </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>on me.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Подводя итог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, это </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">произвело незабываемое впечатление </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>на меня</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +1977,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -100,9 +2032,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -407,16 +2354,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -428,27 +2375,315 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
